--- a/natmiOut/OldD4/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ghsr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,247 +525,1549 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.24473348638761</v>
+        <v>1.335638666666667</v>
       </c>
       <c r="H2">
-        <v>1.24473348638761</v>
+        <v>4.006916</v>
       </c>
       <c r="I2">
-        <v>0.2247654829811168</v>
+        <v>0.1784412410000125</v>
       </c>
       <c r="J2">
-        <v>0.2247654829811168</v>
+        <v>0.1857507333297854</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.98290405495409</v>
+        <v>0.3501783333333333</v>
       </c>
       <c r="N2">
-        <v>1.98290405495409</v>
+        <v>1.050535</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1096531422902788</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1134141042284616</v>
       </c>
       <c r="Q2">
-        <v>2.468187077495133</v>
+        <v>0.4677117222288889</v>
       </c>
       <c r="R2">
-        <v>2.468187077495133</v>
+        <v>4.209405500060001</v>
       </c>
       <c r="S2">
-        <v>0.2247654829811168</v>
+        <v>0.0195666427898283</v>
       </c>
       <c r="T2">
-        <v>0.2247654829811168</v>
+        <v>0.02106675303037746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.47279727044977</v>
+        <v>1.335638666666667</v>
       </c>
       <c r="H3">
-        <v>1.47279727044977</v>
+        <v>4.006916</v>
       </c>
       <c r="I3">
-        <v>0.2659476855456182</v>
+        <v>0.1784412410000125</v>
       </c>
       <c r="J3">
-        <v>0.2659476855456182</v>
+        <v>0.1857507333297854</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.98290405495409</v>
+        <v>2.24748</v>
       </c>
       <c r="N3">
-        <v>1.98290405495409</v>
+        <v>6.74244</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7037649699473766</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7279032044759564</v>
       </c>
       <c r="Q3">
-        <v>2.920415679700164</v>
+        <v>3.00182119056</v>
       </c>
       <c r="R3">
-        <v>2.920415679700164</v>
+        <v>27.01639071504</v>
       </c>
       <c r="S3">
-        <v>0.2659476855456182</v>
+        <v>0.1255806946097464</v>
       </c>
       <c r="T3">
-        <v>0.2659476855456182</v>
+        <v>0.1352085540245097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.94143329845634</v>
+        <v>1.335638666666667</v>
       </c>
       <c r="H4">
-        <v>1.94143329845634</v>
+        <v>4.006916</v>
       </c>
       <c r="I4">
-        <v>0.3505707830433327</v>
+        <v>0.1784412410000125</v>
       </c>
       <c r="J4">
-        <v>0.3505707830433327</v>
+        <v>0.1857507333297854</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.98290405495409</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N4">
-        <v>1.98290405495409</v>
+        <v>0.079739</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.008323027707867459</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.00860849686785619</v>
       </c>
       <c r="Q4">
-        <v>3.849675959931971</v>
+        <v>0.03550083054711112</v>
       </c>
       <c r="R4">
-        <v>3.849675959931971</v>
+        <v>0.3195074749240001</v>
       </c>
       <c r="S4">
-        <v>0.3505707830433327</v>
+        <v>0.001485171393069359</v>
       </c>
       <c r="T4">
-        <v>0.3505707830433327</v>
+        <v>0.001599034606071448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.335638666666667</v>
+      </c>
+      <c r="H5">
+        <v>4.006916</v>
+      </c>
+      <c r="I5">
+        <v>0.1784412410000125</v>
+      </c>
+      <c r="J5">
+        <v>0.1857507333297854</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.754705</v>
+      </c>
+      <c r="O5">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P5">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q5">
+        <v>0.3360043933088889</v>
+      </c>
+      <c r="R5">
+        <v>3.02403953978</v>
+      </c>
+      <c r="S5">
+        <v>0.01405668839848017</v>
+      </c>
+      <c r="T5">
+        <v>0.01513436853202513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.87895693630348</v>
-      </c>
-      <c r="H5">
-        <v>0.87895693630348</v>
-      </c>
-      <c r="I5">
-        <v>0.1587160484299323</v>
-      </c>
-      <c r="J5">
-        <v>0.1587160484299323</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.98290405495409</v>
-      </c>
-      <c r="N5">
-        <v>1.98290405495409</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1.742887273126194</v>
-      </c>
-      <c r="R5">
-        <v>1.742887273126194</v>
-      </c>
-      <c r="S5">
-        <v>0.1587160484299323</v>
-      </c>
-      <c r="T5">
-        <v>0.1587160484299323</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.335638666666667</v>
+      </c>
+      <c r="H6">
+        <v>4.006916</v>
+      </c>
+      <c r="I6">
+        <v>0.1784412410000125</v>
+      </c>
+      <c r="J6">
+        <v>0.1857507333297854</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.317703</v>
+      </c>
+      <c r="N6">
+        <v>0.635406</v>
+      </c>
+      <c r="O6">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P6">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q6">
+        <v>0.4243364113160001</v>
+      </c>
+      <c r="R6">
+        <v>2.546018467896</v>
+      </c>
+      <c r="S6">
+        <v>0.01775204380888829</v>
+      </c>
+      <c r="T6">
+        <v>0.01274202313680175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.297344666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.892034</v>
+      </c>
+      <c r="I7">
+        <v>0.1733251650332182</v>
+      </c>
+      <c r="J7">
+        <v>0.1804250874349395</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.050535</v>
+      </c>
+      <c r="O7">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P7">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q7">
+        <v>0.4543019931322222</v>
+      </c>
+      <c r="R7">
+        <v>4.08871793819</v>
+      </c>
+      <c r="S7">
+        <v>0.01900564898387352</v>
+      </c>
+      <c r="T7">
+        <v>0.02046274967177553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.297344666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.892034</v>
+      </c>
+      <c r="I8">
+        <v>0.1733251650332182</v>
+      </c>
+      <c r="J8">
+        <v>0.1804250874349395</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.24748</v>
+      </c>
+      <c r="N8">
+        <v>6.74244</v>
+      </c>
+      <c r="O8">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P8">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q8">
+        <v>2.91575619144</v>
+      </c>
+      <c r="R8">
+        <v>26.24180572296</v>
+      </c>
+      <c r="S8">
+        <v>0.1219801795607269</v>
+      </c>
+      <c r="T8">
+        <v>0.1313319993117471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.297344666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.892034</v>
+      </c>
+      <c r="I9">
+        <v>0.1733251650332182</v>
+      </c>
+      <c r="J9">
+        <v>0.1804250874349395</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.079739</v>
+      </c>
+      <c r="O9">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P9">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q9">
+        <v>0.03448298879177778</v>
+      </c>
+      <c r="R9">
+        <v>0.3103468991260001</v>
+      </c>
+      <c r="S9">
+        <v>0.001442590151042175</v>
+      </c>
+      <c r="T9">
+        <v>0.001553188800066356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.297344666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.892034</v>
+      </c>
+      <c r="I10">
+        <v>0.1733251650332182</v>
+      </c>
+      <c r="J10">
+        <v>0.1804250874349395</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.754705</v>
+      </c>
+      <c r="O10">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P10">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q10">
+        <v>0.3263708355522222</v>
+      </c>
+      <c r="R10">
+        <v>2.93733751997</v>
+      </c>
+      <c r="S10">
+        <v>0.01365367009797319</v>
+      </c>
+      <c r="T10">
+        <v>0.01470045214203939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.297344666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.892034</v>
+      </c>
+      <c r="I11">
+        <v>0.1733251650332182</v>
+      </c>
+      <c r="J11">
+        <v>0.1804250874349395</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.317703</v>
+      </c>
+      <c r="N11">
+        <v>0.635406</v>
+      </c>
+      <c r="O11">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P11">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q11">
+        <v>0.4121702926340001</v>
+      </c>
+      <c r="R11">
+        <v>2.473021755804</v>
+      </c>
+      <c r="S11">
+        <v>0.01724307623960241</v>
+      </c>
+      <c r="T11">
+        <v>0.01237669750931116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.001239333333333</v>
+      </c>
+      <c r="H12">
+        <v>6.003718</v>
+      </c>
+      <c r="I12">
+        <v>0.2673654477743264</v>
+      </c>
+      <c r="J12">
+        <v>0.2783175442672701</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.050535</v>
+      </c>
+      <c r="O12">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P12">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q12">
+        <v>0.7007906543477778</v>
+      </c>
+      <c r="R12">
+        <v>6.30711588913</v>
+      </c>
+      <c r="S12">
+        <v>0.02931746148830231</v>
+      </c>
+      <c r="T12">
+        <v>0.03156513497413765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.001239333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.003718</v>
+      </c>
+      <c r="I13">
+        <v>0.2673654477743264</v>
+      </c>
+      <c r="J13">
+        <v>0.2783175442672701</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.24748</v>
+      </c>
+      <c r="N13">
+        <v>6.74244</v>
+      </c>
+      <c r="O13">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P13">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q13">
+        <v>4.49774537688</v>
+      </c>
+      <c r="R13">
+        <v>40.47970839192</v>
+      </c>
+      <c r="S13">
+        <v>0.1881624363178657</v>
+      </c>
+      <c r="T13">
+        <v>0.2025882323340247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.001239333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.003718</v>
+      </c>
+      <c r="I14">
+        <v>0.2673654477743264</v>
+      </c>
+      <c r="J14">
+        <v>0.2783175442672701</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.079739</v>
+      </c>
+      <c r="O14">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P14">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q14">
+        <v>0.05319227440022223</v>
+      </c>
+      <c r="R14">
+        <v>0.4787304696020001</v>
+      </c>
+      <c r="S14">
+        <v>0.002225290029952108</v>
+      </c>
+      <c r="T14">
+        <v>0.002395895708094221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.001239333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.003718</v>
+      </c>
+      <c r="I15">
+        <v>0.2673654477743264</v>
+      </c>
+      <c r="J15">
+        <v>0.2783175442672701</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.754705</v>
+      </c>
+      <c r="O15">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P15">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q15">
+        <v>0.5034484436877777</v>
+      </c>
+      <c r="R15">
+        <v>4.53103599319</v>
+      </c>
+      <c r="S15">
+        <v>0.02106168264030156</v>
+      </c>
+      <c r="T15">
+        <v>0.02267641267607129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.001239333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.003718</v>
+      </c>
+      <c r="I16">
+        <v>0.2673654477743264</v>
+      </c>
+      <c r="J16">
+        <v>0.2783175442672701</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.317703</v>
+      </c>
+      <c r="N16">
+        <v>0.635406</v>
+      </c>
+      <c r="O16">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P16">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q16">
+        <v>0.635799739918</v>
+      </c>
+      <c r="R16">
+        <v>3.814798439508</v>
+      </c>
+      <c r="S16">
+        <v>0.02659857729790471</v>
+      </c>
+      <c r="T16">
+        <v>0.0190918685749422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.967178333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.901535</v>
+      </c>
+      <c r="I17">
+        <v>0.2628149003385667</v>
+      </c>
+      <c r="J17">
+        <v>0.2735805926606386</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.050535</v>
+      </c>
+      <c r="O17">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P17">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q17">
+        <v>0.6888632301361111</v>
+      </c>
+      <c r="R17">
+        <v>6.199769071225</v>
+      </c>
+      <c r="S17">
+        <v>0.02881847966283029</v>
+      </c>
+      <c r="T17">
+        <v>0.03102789785089797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.967178333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.901535</v>
+      </c>
+      <c r="I18">
+        <v>0.2628149003385667</v>
+      </c>
+      <c r="J18">
+        <v>0.2735805926606386</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.24748</v>
+      </c>
+      <c r="N18">
+        <v>6.74244</v>
+      </c>
+      <c r="O18">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P18">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q18">
+        <v>4.421193960599999</v>
+      </c>
+      <c r="R18">
+        <v>39.7907456454</v>
+      </c>
+      <c r="S18">
+        <v>0.1849599204384942</v>
+      </c>
+      <c r="T18">
+        <v>0.1991401900801101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.967178333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.901535</v>
+      </c>
+      <c r="I19">
+        <v>0.2628149003385667</v>
+      </c>
+      <c r="J19">
+        <v>0.2735805926606386</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.079739</v>
+      </c>
+      <c r="O19">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P19">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q19">
+        <v>0.05228694437388889</v>
+      </c>
+      <c r="R19">
+        <v>0.470582499365</v>
+      </c>
+      <c r="S19">
+        <v>0.002187415697558316</v>
+      </c>
+      <c r="T19">
+        <v>0.002355117675025347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.967178333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.901535</v>
+      </c>
+      <c r="I20">
+        <v>0.2628149003385667</v>
+      </c>
+      <c r="J20">
+        <v>0.2735805926606386</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.754705</v>
+      </c>
+      <c r="O20">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P20">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q20">
+        <v>0.4948797746861111</v>
+      </c>
+      <c r="R20">
+        <v>4.453917972175</v>
+      </c>
+      <c r="S20">
+        <v>0.02070321378529638</v>
+      </c>
+      <c r="T20">
+        <v>0.02229046119126155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.967178333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.901535</v>
+      </c>
+      <c r="I21">
+        <v>0.2628149003385667</v>
+      </c>
+      <c r="J21">
+        <v>0.2735805926606386</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.317703</v>
+      </c>
+      <c r="N21">
+        <v>0.635406</v>
+      </c>
+      <c r="O21">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P21">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q21">
+        <v>0.624978458035</v>
+      </c>
+      <c r="R21">
+        <v>3.74987074821</v>
+      </c>
+      <c r="S21">
+        <v>0.02614587075438754</v>
+      </c>
+      <c r="T21">
+        <v>0.0187669258633436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8836325</v>
+      </c>
+      <c r="H22">
+        <v>1.767265</v>
+      </c>
+      <c r="I22">
+        <v>0.1180532458538763</v>
+      </c>
+      <c r="J22">
+        <v>0.08192604230736637</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.050535</v>
+      </c>
+      <c r="O22">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P22">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q22">
+        <v>0.3094289561291667</v>
+      </c>
+      <c r="R22">
+        <v>1.856573736775</v>
+      </c>
+      <c r="S22">
+        <v>0.01294490936544436</v>
+      </c>
+      <c r="T22">
+        <v>0.009291568701273007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8836325</v>
+      </c>
+      <c r="H23">
+        <v>1.767265</v>
+      </c>
+      <c r="I23">
+        <v>0.1180532458538763</v>
+      </c>
+      <c r="J23">
+        <v>0.08192604230736637</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.24748</v>
+      </c>
+      <c r="N23">
+        <v>6.74244</v>
+      </c>
+      <c r="O23">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P23">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q23">
+        <v>1.9859463711</v>
+      </c>
+      <c r="R23">
+        <v>11.9156782266</v>
+      </c>
+      <c r="S23">
+        <v>0.0830817390205435</v>
+      </c>
+      <c r="T23">
+        <v>0.05963422872556476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8836325</v>
+      </c>
+      <c r="H24">
+        <v>1.767265</v>
+      </c>
+      <c r="I24">
+        <v>0.1180532458538763</v>
+      </c>
+      <c r="J24">
+        <v>0.08192604230736637</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.079739</v>
+      </c>
+      <c r="O24">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P24">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q24">
+        <v>0.02348665730583334</v>
+      </c>
+      <c r="R24">
+        <v>0.140919943835</v>
+      </c>
+      <c r="S24">
+        <v>0.0009825604362455015</v>
+      </c>
+      <c r="T24">
+        <v>0.0007052600785988171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8836325</v>
+      </c>
+      <c r="H25">
+        <v>1.767265</v>
+      </c>
+      <c r="I25">
+        <v>0.1180532458538763</v>
+      </c>
+      <c r="J25">
+        <v>0.08192604230736637</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.754705</v>
+      </c>
+      <c r="O25">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P25">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q25">
+        <v>0.2222939553041667</v>
+      </c>
+      <c r="R25">
+        <v>1.333763731825</v>
+      </c>
+      <c r="S25">
+        <v>0.009299630971502791</v>
+      </c>
+      <c r="T25">
+        <v>0.006675068757056399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8836325</v>
+      </c>
+      <c r="H26">
+        <v>1.767265</v>
+      </c>
+      <c r="I26">
+        <v>0.1180532458538763</v>
+      </c>
+      <c r="J26">
+        <v>0.08192604230736637</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.317703</v>
+      </c>
+      <c r="N26">
+        <v>0.635406</v>
+      </c>
+      <c r="O26">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P26">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q26">
+        <v>0.2807326961475</v>
+      </c>
+      <c r="R26">
+        <v>1.12293078459</v>
+      </c>
+      <c r="S26">
+        <v>0.01174440606014013</v>
+      </c>
+      <c r="T26">
+        <v>0.005619916044873399</v>
       </c>
     </row>
   </sheetData>
